--- a/Hardware_PinMap/STM보드 최종본(L432KC+F103RB).xlsx
+++ b/Hardware_PinMap/STM보드 최종본(L432KC+F103RB).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\stm32_project\Industrial-Edge-AI-Solution-Challenge-2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\stm32_project\Industrial-Edge-AI-Solution-Challenge-2026\Hardware_PinMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E113E1CC-43A7-4B13-B751-5025D1725B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1050CAD7-3E2B-4DB6-9216-F35B383BC920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NUCLEO-F103RB 핀 할당" sheetId="1" r:id="rId1"/>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SG90 Servo Motor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>주황색선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -480,6 +476,10 @@
   <si>
     <t>Clock Speed = 100000Hz</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Torque Brushless Servo Motor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -749,7 +749,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1066,14 +1066,14 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18.6875" customWidth="1"/>
     <col min="4" max="4" width="10.0625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
     <col min="6" max="6" width="10.0625" customWidth="1"/>
     <col min="7" max="7" width="92.1875" customWidth="1"/>
   </cols>
@@ -1217,85 +1217,85 @@
       <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>86</v>
@@ -1304,18 +1304,18 @@
         <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>86</v>
@@ -1324,90 +1324,90 @@
         <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.6">
@@ -1453,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
